--- a/medicine/Enfance/Pierre_Ballouhey/Pierre_Ballouhey.xlsx
+++ b/medicine/Enfance/Pierre_Ballouhey/Pierre_Ballouhey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Ballouhey, né le 24 novembre 1944 à Saint-Marcellin en Isère, est un illustrateur et dessinateur de presse français.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudie aux Arts déco de Grenoble, puis aux Beaux-arts de Paris[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie aux Arts déco de Grenoble, puis aux Beaux-arts de Paris.
 Il travaille pour le groupe France-Illustrations, où il crée des visuels de campagnes nationales pour 3M ou L'Oréal entre autres[réf. nécessaire]. 
 Il dessine aussi pour divers titres de presse, Le Mémorial de l’Isère, 60 millions de consommateurs, The Guardian, The New Yorker, Cagle Political Cartoons, Les Épines Drômoises, Siné-Hebdo, La Mèche, Barricade, Le Monde, Zélium, Jeune Afrique, Traits d’Union, Espoir, Buduàr, Le Ravi, Libex, L’Éléphant et Fluide Glacial...
 Il illustre également des ouvrages pour l'édition jeunesse Copain des Bois, Cabanes et abris ou encore La pêche en eau douce (Milan Presse), Tic-Tac l’horloge (Nathan). Il intervient aussi sur les ouvrages Pinocchio et La Case de l’oncle Tom (Scandinavia à Copenhague) ou encore Vélo Magazine (Glénat). Il intervient aussi dans divers ouvrages scolaires.
-Il a enseigné le dessin de presse à l’École Émile-Cohl de Lyon[1] et est président de France-Cartoons, association de dessinateurs de presse francophones. Il est en outre membre de Cartooning for Peace et de Cagle Political Cartoons.
+Il a enseigné le dessin de presse à l’École Émile-Cohl de Lyon et est président de France-Cartoons, association de dessinateurs de presse francophones. Il est en outre membre de Cartooning for Peace et de Cagle Political Cartoons.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Vélo, 1988, Éditions Glénat
 Pinocchio, 1990, Scandinavia publishing house/Copenhagen
@@ -612,7 +628,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Fondation de France pour Copain de bois
 Prix Sorcières pour Copain des villes
